--- a/KSP/Шаблон Форма2.xlsx
+++ b/KSP/Шаблон Форма2.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="130" yWindow="540" windowWidth="38080" windowHeight="13490"/>
+    <workbookView xWindow="135" yWindow="540" windowWidth="38085" windowHeight="13485"/>
   </bookViews>
   <sheets>
     <sheet name="Рабочая" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="dates">Рабочая!$B$5:$P$6</definedName>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>№
 п / п</t>
@@ -47,9 +48,6 @@
     <t>________</t>
   </si>
   <si>
-    <t>Дата актуализации</t>
-  </si>
-  <si>
     <t>{{item.Name_InstallationLocation}}</t>
   </si>
   <si>
@@ -66,15 +64,6 @@
   </si>
   <si>
     <t>{{item.MeasurementFieldName}}</t>
-  </si>
-  <si>
-    <t>{{item.CODE}}</t>
-  </si>
-  <si>
-    <t>&lt;&lt;group MergeLabels=Merge2&gt;&gt;&lt;&lt;sort&gt;&gt;</t>
-  </si>
-  <si>
-    <t>{{DateTime.Now}}</t>
   </si>
   <si>
     <t>{{item.MiGroupDocument}}</t>
@@ -90,9 +79,6 @@
     <t>Право собственности или иное законное основание, предусматривающее право владения и пользования (реквизиты подтверждающих документов)</t>
   </si>
   <si>
-    <t>&lt;&lt;group MergeLabels placetocolumn=2&gt;&gt;&lt;&lt;SummaryAbove&gt;&gt;&lt;&lt;Delete&gt;&gt;</t>
-  </si>
-  <si>
     <t>Сведения об оснащенности эталонами единиц величин и (или) средствами измерений</t>
   </si>
   <si>
@@ -111,29 +97,40 @@
     <t>Погрешность и (или) неопределенность (класс, разряд)</t>
   </si>
   <si>
-    <t>{{item.Owner_LegalForm}} {{item.Owner_Name}}
+    <t>{{item.VerificationTool_Range}}</t>
+  </si>
+  <si>
+    <t>{{item.Owner_LegalForm}} "{{item.Owner_Name}}"
 {{item.TitleDocument}}</t>
   </si>
   <si>
-    <t>{{item.CertificateNumber}} {{item.CertificateDate.GetValueOrDefault().ToString("dd.MM.yyyy")}} годен до {{item.ValidityCertificateDate.GetValueOrDefault().ToString("dd.MM.yyyy")}}</t>
-  </si>
-  <si>
-    <t>{{item.TypeSiName}}, {{item.Designation}}, №{{item.MiVerificationNumber}}</t>
-  </si>
-  <si>
-    <t>{{item.Manufacturer_Country}}, {{item.Manufacturer_LegalForm}} {{item.Manufacturer_Name}}, {{item.IssueDate.GetValueOrDefault().ToString("dd.MM.yyyy")}}</t>
-  </si>
-  <si>
-    <t>{{item.TypeSiName}}</t>
-  </si>
-  <si>
-    <t>{{item.CommissioningDate.GetValueOrDefault().ToString("yyyy")}}г., инв.№{{item.InventoryNumber}}, №{{item.FactoryNumber}}</t>
-  </si>
-  <si>
-    <t>{{item.VerificationTool_Range}}</t>
-  </si>
-  <si>
-    <t>{{string.IsNullOrWhiteSpace(Item.VerificationTool_Characteristic)?Item.VerificationTool_Characteristic:item.VerificationTool_Discharge}}</t>
+    <t>{{item.Manufacturer_Country}}, {{item.Manufacturer_LegalForm}} {{item.Manufacturer_Name}}, {{item.IssueDate.GetValueOrDefault().ToString("yyyy")}}</t>
+  </si>
+  <si>
+    <t>{{iif (item.verificationNumber==null,"",item.VerificationToolName)}}</t>
+  </si>
+  <si>
+    <t>{{Item.VerificationTool_Characteristic}}</t>
+  </si>
+  <si>
+    <t>{{item.CertificateNumber}} {{item.CertificateDate.GetValueOrDefault().ToString("dd.MM.yyyy")}} годен до {{item.ValidityCertificateDate.GetValueOrDefault().ToString("dd.MM.yyyy")}}
+{{item.MiVerificationNumber}}</t>
+  </si>
+  <si>
+    <t>{{item.CommissioningDate.GetValueOrDefault().ToString("yyyy")}}г., {{iif(item.inventoryNumber.substring(0,3)=="ном" || item.inventoryNumber.substring(0,3)=="В с",item.inventoryNumber,"инв.№" + item.inventoryNumber)}}, {{iif(item.FactoryNumber.substring(0,1)=="п",item.FactoryNumber,"зав.№" + item.FactoryNumber)}}</t>
+  </si>
+  <si>
+    <t>{{item.TypeSiName}}, {{item.Designation}},
+{{iif (item.verificationNumber==null,item.RegistrationNumber,item.verificationNumber)}}</t>
+  </si>
+  <si>
+    <t>{{item.CODE}}</t>
+  </si>
+  <si>
+    <t>&lt;&lt;group MergeLabels placetocolumn=2&gt;&gt;&lt;&lt;SummaryAbove&gt;&gt;&lt;&lt;delete&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;sort&gt;&gt;&lt;&lt;group MergeLabels=Merge2&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -358,9 +355,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -394,6 +388,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -733,33 +728,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="14"/>
-    <col min="2" max="2" width="12.36328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.26953125" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" customWidth="1"/>
-    <col min="5" max="5" width="44.81640625" customWidth="1"/>
-    <col min="6" max="6" width="50.81640625" customWidth="1"/>
-    <col min="7" max="7" width="60.1796875" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="13"/>
+    <col min="2" max="2" width="12.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="6" max="6" width="50.85546875" customWidth="1"/>
+    <col min="7" max="7" width="60.140625" customWidth="1"/>
     <col min="8" max="8" width="79" customWidth="1"/>
-    <col min="9" max="9" width="49.81640625" customWidth="1"/>
+    <col min="9" max="9" width="49.85546875" customWidth="1"/>
     <col min="10" max="10" width="53" customWidth="1"/>
     <col min="11" max="11" width="43" customWidth="1"/>
-    <col min="12" max="12" width="44.7265625" customWidth="1"/>
-    <col min="13" max="13" width="35.36328125" customWidth="1"/>
-    <col min="14" max="14" width="37.26953125" customWidth="1"/>
-    <col min="15" max="15" width="28.54296875" customWidth="1"/>
-    <col min="16" max="16" width="46.54296875" customWidth="1"/>
+    <col min="12" max="12" width="44.7109375" customWidth="1"/>
+    <col min="13" max="13" width="35.42578125" customWidth="1"/>
+    <col min="14" max="14" width="37.28515625" customWidth="1"/>
+    <col min="15" max="15" width="28.5703125" customWidth="1"/>
+    <col min="16" max="16" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -775,51 +770,51 @@
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
     </row>
-    <row r="2" spans="2:16" ht="140" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:16" ht="140.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L2" s="19"/>
       <c r="M2" s="30" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="110" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="19"/>
@@ -827,17 +822,17 @@
       <c r="H3" s="29"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="17" t="s">
-        <v>29</v>
+      <c r="L3" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="M3" s="31"/>
       <c r="N3" s="33"/>
       <c r="O3" s="19"/>
     </row>
-    <row r="4" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -879,85 +874,83 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="2:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="H5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
-    <row r="6" spans="2:16" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="8" spans="2:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I8" s="20" t="s">
         <v>6</v>
       </c>
@@ -969,12 +962,8 @@
       <c r="M8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -996,4 +985,18 @@
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>